--- a/docs/plan/WhaleyLogSys.xlsx
+++ b/docs/plan/WhaleyLogSys.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26101"/>
-  <workbookPr showInkAnnotation="0"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fj/workspace/whaley/projects/WhaleyLogSys/docs/plan/"/>
@@ -13,8 +13,9 @@
   </bookViews>
   <sheets>
     <sheet name="工作任务表" sheetId="3" r:id="rId1"/>
-    <sheet name="工作表5" sheetId="5" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="6" r:id="rId2"/>
     <sheet name="立项排期" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表5" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="132">
   <si>
     <t>SDK和日志收集系统之间的整体交互协议制定</t>
     <rPh sb="3" eb="4">
@@ -1217,6 +1218,176 @@
     <rPh sb="10" eb="11">
       <t>da'j</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>"</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>",</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1324,7 +1495,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1361,6 +1532,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1640,10 +1814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3174,55 +3349,1100 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E3:F7"/>
+  <dimension ref="F9:J72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F7"/>
+      <selection activeCell="H9" sqref="H9:J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="5" max="6" width="12.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="3" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E3">
-        <v>81264182038</v>
-      </c>
-      <c r="F3">
-        <v>34393620280</v>
-      </c>
-    </row>
-    <row r="4" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E4">
-        <v>75338368671</v>
-      </c>
-      <c r="F4">
-        <v>43001268373</v>
-      </c>
-    </row>
-    <row r="5" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E5">
-        <v>80073256059</v>
-      </c>
-      <c r="F5">
-        <v>43819363393</v>
-      </c>
-    </row>
-    <row r="6" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E6">
-        <v>81582423660</v>
-      </c>
-      <c r="F6">
-        <v>26262271090</v>
-      </c>
-    </row>
-    <row r="7" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E7">
-        <v>91215812130</v>
-      </c>
-      <c r="F7">
-        <v>25758775365</v>
+    <row r="9" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>76</v>
+      </c>
+      <c r="H9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>130</v>
+      </c>
+      <c r="I10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>130</v>
+      </c>
+      <c r="I12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>130</v>
+      </c>
+      <c r="I13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H14" t="s">
+        <v>130</v>
+      </c>
+      <c r="I14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="G15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" t="s">
+        <v>130</v>
+      </c>
+      <c r="I16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F17">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" t="s">
+        <v>130</v>
+      </c>
+      <c r="I17" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F18">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" t="s">
+        <v>130</v>
+      </c>
+      <c r="I18" t="s">
+        <v>107</v>
+      </c>
+      <c r="J18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>130</v>
+      </c>
+      <c r="I19" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" t="s">
+        <v>130</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
+        <v>130</v>
+      </c>
+      <c r="I21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F22">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F23">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>122</v>
+      </c>
+      <c r="H23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F25">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I25" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F26">
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" t="s">
+        <v>130</v>
+      </c>
+      <c r="I26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F27">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F28">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" t="s">
+        <v>130</v>
+      </c>
+      <c r="I28" t="s">
+        <v>89</v>
+      </c>
+      <c r="J28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" t="s">
+        <v>130</v>
+      </c>
+      <c r="I29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F30">
+        <v>21</v>
+      </c>
+      <c r="G30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" t="s">
+        <v>96</v>
+      </c>
+      <c r="J30" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F31">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" t="s">
+        <v>130</v>
+      </c>
+      <c r="I31" t="s">
+        <v>99</v>
+      </c>
+      <c r="J31" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F32">
+        <v>23</v>
+      </c>
+      <c r="G32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H32" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F33">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" t="s">
+        <v>130</v>
+      </c>
+      <c r="I33" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F34">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H34" t="s">
+        <v>130</v>
+      </c>
+      <c r="I34" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F35">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>111</v>
+      </c>
+      <c r="H35" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" t="s">
+        <v>111</v>
+      </c>
+      <c r="J35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F36">
+        <v>27</v>
+      </c>
+      <c r="G36" t="s">
+        <v>114</v>
+      </c>
+      <c r="H36" t="s">
+        <v>130</v>
+      </c>
+      <c r="I36" t="s">
+        <v>114</v>
+      </c>
+      <c r="J36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F37">
+        <v>28</v>
+      </c>
+      <c r="G37" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" t="s">
+        <v>130</v>
+      </c>
+      <c r="I37" t="s">
+        <v>117</v>
+      </c>
+      <c r="J37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F38">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>120</v>
+      </c>
+      <c r="H38" t="s">
+        <v>130</v>
+      </c>
+      <c r="I38" t="s">
+        <v>120</v>
+      </c>
+      <c r="J38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F39">
+        <v>30</v>
+      </c>
+      <c r="G39" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" t="s">
+        <v>130</v>
+      </c>
+      <c r="I39" t="s">
+        <v>123</v>
+      </c>
+      <c r="J39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F40">
+        <v>31</v>
+      </c>
+      <c r="G40" t="s">
+        <v>127</v>
+      </c>
+      <c r="H40" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" t="s">
+        <v>127</v>
+      </c>
+      <c r="J40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F41">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41" t="s">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F42">
+        <v>33</v>
+      </c>
+      <c r="G42" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" t="s">
+        <v>130</v>
+      </c>
+      <c r="I42" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F43">
+        <v>34</v>
+      </c>
+      <c r="G43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H43" t="s">
+        <v>130</v>
+      </c>
+      <c r="I43" t="s">
+        <v>86</v>
+      </c>
+      <c r="J43" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F44">
+        <v>35</v>
+      </c>
+      <c r="G44" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44" t="s">
+        <v>90</v>
+      </c>
+      <c r="J44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F45">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
+        <v>94</v>
+      </c>
+      <c r="H45" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45" t="s">
+        <v>94</v>
+      </c>
+      <c r="J45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F46">
+        <v>37</v>
+      </c>
+      <c r="G46" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" t="s">
+        <v>130</v>
+      </c>
+      <c r="I46" t="s">
+        <v>97</v>
+      </c>
+      <c r="J46" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F47">
+        <v>38</v>
+      </c>
+      <c r="G47" t="s">
+        <v>100</v>
+      </c>
+      <c r="H47" t="s">
+        <v>130</v>
+      </c>
+      <c r="I47" t="s">
+        <v>100</v>
+      </c>
+      <c r="J47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F48">
+        <v>39</v>
+      </c>
+      <c r="G48" t="s">
+        <v>103</v>
+      </c>
+      <c r="H48" t="s">
+        <v>130</v>
+      </c>
+      <c r="I48" t="s">
+        <v>103</v>
+      </c>
+      <c r="J48" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F49">
+        <v>40</v>
+      </c>
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" t="s">
+        <v>130</v>
+      </c>
+      <c r="I49" t="s">
+        <v>106</v>
+      </c>
+      <c r="J49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F50">
+        <v>41</v>
+      </c>
+      <c r="G50" t="s">
+        <v>109</v>
+      </c>
+      <c r="H50" t="s">
+        <v>130</v>
+      </c>
+      <c r="I50" t="s">
+        <v>109</v>
+      </c>
+      <c r="J50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F51">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" t="s">
+        <v>130</v>
+      </c>
+      <c r="I51" t="s">
+        <v>112</v>
+      </c>
+      <c r="J51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="52" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F52">
+        <v>43</v>
+      </c>
+      <c r="G52" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" t="s">
+        <v>130</v>
+      </c>
+      <c r="I52" t="s">
+        <v>115</v>
+      </c>
+      <c r="J52" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F53">
+        <v>44</v>
+      </c>
+      <c r="G53" t="s">
+        <v>118</v>
+      </c>
+      <c r="H53" t="s">
+        <v>130</v>
+      </c>
+      <c r="I53" t="s">
+        <v>118</v>
+      </c>
+      <c r="J53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="54" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F54">
+        <v>45</v>
+      </c>
+      <c r="G54" t="s">
+        <v>121</v>
+      </c>
+      <c r="H54" t="s">
+        <v>130</v>
+      </c>
+      <c r="I54" t="s">
+        <v>121</v>
+      </c>
+      <c r="J54" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F55">
+        <v>46</v>
+      </c>
+      <c r="G55" t="s">
+        <v>124</v>
+      </c>
+      <c r="H55" t="s">
+        <v>130</v>
+      </c>
+      <c r="I55" t="s">
+        <v>124</v>
+      </c>
+      <c r="J55" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F56">
+        <v>47</v>
+      </c>
+      <c r="G56" t="s">
+        <v>128</v>
+      </c>
+      <c r="H56" t="s">
+        <v>130</v>
+      </c>
+      <c r="I56" t="s">
+        <v>128</v>
+      </c>
+      <c r="J56" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F57">
+        <v>48</v>
+      </c>
+      <c r="G57" t="s">
+        <v>79</v>
+      </c>
+      <c r="H57" t="s">
+        <v>130</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F58">
+        <v>49</v>
+      </c>
+      <c r="G58" t="s">
+        <v>83</v>
+      </c>
+      <c r="H58" t="s">
+        <v>130</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+      <c r="J58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="59" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F59">
+        <v>50</v>
+      </c>
+      <c r="G59" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" t="s">
+        <v>130</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+      <c r="J59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F60">
+        <v>51</v>
+      </c>
+      <c r="G60" t="s">
+        <v>91</v>
+      </c>
+      <c r="H60" t="s">
+        <v>130</v>
+      </c>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+      <c r="J60" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="61" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F61">
+        <v>52</v>
+      </c>
+      <c r="G61" s="16">
+        <v>0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>130</v>
+      </c>
+      <c r="I61" s="16">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="62" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F62">
+        <v>53</v>
+      </c>
+      <c r="G62" s="16">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>130</v>
+      </c>
+      <c r="I62" s="16">
+        <v>1</v>
+      </c>
+      <c r="J62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F63">
+        <v>54</v>
+      </c>
+      <c r="G63" s="16">
+        <v>2</v>
+      </c>
+      <c r="H63" t="s">
+        <v>130</v>
+      </c>
+      <c r="I63" s="16">
+        <v>2</v>
+      </c>
+      <c r="J63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F64">
+        <v>55</v>
+      </c>
+      <c r="G64" s="16">
+        <v>3</v>
+      </c>
+      <c r="H64" t="s">
+        <v>130</v>
+      </c>
+      <c r="I64" s="16">
+        <v>3</v>
+      </c>
+      <c r="J64" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F65">
+        <v>56</v>
+      </c>
+      <c r="G65" s="16">
+        <v>4</v>
+      </c>
+      <c r="H65" t="s">
+        <v>130</v>
+      </c>
+      <c r="I65" s="16">
+        <v>4</v>
+      </c>
+      <c r="J65" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F66">
+        <v>57</v>
+      </c>
+      <c r="G66" s="16">
+        <v>5</v>
+      </c>
+      <c r="H66" t="s">
+        <v>130</v>
+      </c>
+      <c r="I66" s="16">
+        <v>5</v>
+      </c>
+      <c r="J66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F67">
+        <v>58</v>
+      </c>
+      <c r="G67" s="16">
+        <v>6</v>
+      </c>
+      <c r="H67" t="s">
+        <v>130</v>
+      </c>
+      <c r="I67" s="16">
+        <v>6</v>
+      </c>
+      <c r="J67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F68">
+        <v>59</v>
+      </c>
+      <c r="G68" s="16">
+        <v>7</v>
+      </c>
+      <c r="H68" t="s">
+        <v>130</v>
+      </c>
+      <c r="I68" s="16">
+        <v>7</v>
+      </c>
+      <c r="J68" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F69">
+        <v>60</v>
+      </c>
+      <c r="G69" s="16">
+        <v>8</v>
+      </c>
+      <c r="H69" t="s">
+        <v>130</v>
+      </c>
+      <c r="I69" s="16">
+        <v>8</v>
+      </c>
+      <c r="J69" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F70">
+        <v>61</v>
+      </c>
+      <c r="G70" s="16">
+        <v>9</v>
+      </c>
+      <c r="H70" t="s">
+        <v>130</v>
+      </c>
+      <c r="I70" s="16">
+        <v>9</v>
+      </c>
+      <c r="J70" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F71">
+        <v>62</v>
+      </c>
+      <c r="G71" t="s">
+        <v>125</v>
+      </c>
+      <c r="H71" t="s">
+        <v>130</v>
+      </c>
+      <c r="I71" t="s">
+        <v>125</v>
+      </c>
+      <c r="J71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="6:10" x14ac:dyDescent="0.15">
+      <c r="F72">
+        <v>63</v>
+      </c>
+      <c r="G72" t="s">
+        <v>129</v>
+      </c>
+      <c r="H72" t="s">
+        <v>130</v>
+      </c>
+      <c r="I72" t="s">
+        <v>129</v>
+      </c>
+      <c r="J72" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -3233,6 +4453,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表2" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AN28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3844,4 +5065,64 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="工作表3" enableFormatConditionsCalculation="0"/>
+  <dimension ref="E3:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="5" max="6" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>81264182038</v>
+      </c>
+      <c r="F3">
+        <v>34393620280</v>
+      </c>
+    </row>
+    <row r="4" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>75338368671</v>
+      </c>
+      <c r="F4">
+        <v>43001268373</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>80073256059</v>
+      </c>
+      <c r="F5">
+        <v>43819363393</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>81582423660</v>
+      </c>
+      <c r="F6">
+        <v>26262271090</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E7">
+        <v>91215812130</v>
+      </c>
+      <c r="F7">
+        <v>25758775365</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/plan/WhaleyLogSys.xlsx
+++ b/docs/plan/WhaleyLogSys.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作任务表" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="76">
   <si>
     <t>SDK和日志收集系统之间的整体交互协议制定</t>
     <rPh sb="3" eb="4">
@@ -1218,176 +1218,6 @@
     <rPh sb="10" eb="11">
       <t>da'j</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>i</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>j</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>o</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>v</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>",</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1817,8 +1647,8 @@
   <sheetPr codeName="工作表1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:AN37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3349,1101 +3179,53 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F9:J72"/>
+  <dimension ref="G61:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:J72"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G32" sqref="F9:J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="9" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" t="s">
-        <v>130</v>
-      </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" t="s">
-        <v>130</v>
-      </c>
-      <c r="I10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>84</v>
-      </c>
-      <c r="H11" t="s">
-        <v>130</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F12">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" t="s">
-        <v>130</v>
-      </c>
-      <c r="I12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F13">
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>92</v>
-      </c>
-      <c r="H13" t="s">
-        <v>130</v>
-      </c>
-      <c r="I13" t="s">
-        <v>92</v>
-      </c>
-      <c r="J13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14" t="s">
-        <v>95</v>
-      </c>
-      <c r="H14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F15">
-        <v>6</v>
-      </c>
-      <c r="G15" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" t="s">
-        <v>130</v>
-      </c>
-      <c r="I15" t="s">
-        <v>98</v>
-      </c>
-      <c r="J15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="16" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F16">
-        <v>7</v>
-      </c>
-      <c r="G16" t="s">
-        <v>101</v>
-      </c>
-      <c r="H16" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H17" t="s">
-        <v>130</v>
-      </c>
-      <c r="I17" t="s">
-        <v>104</v>
-      </c>
-      <c r="J17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F18">
-        <v>9</v>
-      </c>
-      <c r="G18" t="s">
-        <v>107</v>
-      </c>
-      <c r="H18" t="s">
-        <v>130</v>
-      </c>
-      <c r="I18" t="s">
-        <v>107</v>
-      </c>
-      <c r="J18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" t="s">
-        <v>130</v>
-      </c>
-      <c r="I19" t="s">
-        <v>110</v>
-      </c>
-      <c r="J19" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F20">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I20" t="s">
-        <v>113</v>
-      </c>
-      <c r="J20" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F21">
-        <v>12</v>
-      </c>
-      <c r="G21" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" t="s">
-        <v>130</v>
-      </c>
-      <c r="I21" t="s">
-        <v>116</v>
-      </c>
-      <c r="J21" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F22">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>119</v>
-      </c>
-      <c r="H22" t="s">
-        <v>130</v>
-      </c>
-      <c r="I22" t="s">
-        <v>119</v>
-      </c>
-      <c r="J22" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F23">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" t="s">
-        <v>130</v>
-      </c>
-      <c r="I23" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F24">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" t="s">
-        <v>130</v>
-      </c>
-      <c r="I24" t="s">
-        <v>126</v>
-      </c>
-      <c r="J24" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F25">
-        <v>16</v>
-      </c>
-      <c r="G25" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" t="s">
-        <v>130</v>
-      </c>
-      <c r="I25" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F26">
-        <v>17</v>
-      </c>
-      <c r="G26" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" t="s">
-        <v>130</v>
-      </c>
-      <c r="I26" t="s">
-        <v>81</v>
-      </c>
-      <c r="J26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F27">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" t="s">
-        <v>130</v>
-      </c>
-      <c r="I27" t="s">
-        <v>85</v>
-      </c>
-      <c r="J27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F28">
-        <v>19</v>
-      </c>
-      <c r="G28" t="s">
-        <v>89</v>
-      </c>
-      <c r="H28" t="s">
-        <v>130</v>
-      </c>
-      <c r="I28" t="s">
-        <v>89</v>
-      </c>
-      <c r="J28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F29">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>93</v>
-      </c>
-      <c r="H29" t="s">
-        <v>130</v>
-      </c>
-      <c r="I29" t="s">
-        <v>93</v>
-      </c>
-      <c r="J29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F30">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>96</v>
-      </c>
-      <c r="H30" t="s">
-        <v>130</v>
-      </c>
-      <c r="I30" t="s">
-        <v>96</v>
-      </c>
-      <c r="J30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F31">
-        <v>22</v>
-      </c>
-      <c r="G31" t="s">
-        <v>99</v>
-      </c>
-      <c r="H31" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" t="s">
-        <v>99</v>
-      </c>
-      <c r="J31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F32">
-        <v>23</v>
-      </c>
-      <c r="G32" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" t="s">
-        <v>130</v>
-      </c>
-      <c r="I32" t="s">
-        <v>102</v>
-      </c>
-      <c r="J32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F33">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
-        <v>105</v>
-      </c>
-      <c r="H33" t="s">
-        <v>130</v>
-      </c>
-      <c r="I33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J33" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F34">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s">
-        <v>108</v>
-      </c>
-      <c r="H34" t="s">
-        <v>130</v>
-      </c>
-      <c r="I34" t="s">
-        <v>108</v>
-      </c>
-      <c r="J34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F35">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>111</v>
-      </c>
-      <c r="H35" t="s">
-        <v>130</v>
-      </c>
-      <c r="I35" t="s">
-        <v>111</v>
-      </c>
-      <c r="J35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F36">
-        <v>27</v>
-      </c>
-      <c r="G36" t="s">
-        <v>114</v>
-      </c>
-      <c r="H36" t="s">
-        <v>130</v>
-      </c>
-      <c r="I36" t="s">
-        <v>114</v>
-      </c>
-      <c r="J36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F37">
-        <v>28</v>
-      </c>
-      <c r="G37" t="s">
-        <v>117</v>
-      </c>
-      <c r="H37" t="s">
-        <v>130</v>
-      </c>
-      <c r="I37" t="s">
-        <v>117</v>
-      </c>
-      <c r="J37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F38">
-        <v>29</v>
-      </c>
-      <c r="G38" t="s">
-        <v>120</v>
-      </c>
-      <c r="H38" t="s">
-        <v>130</v>
-      </c>
-      <c r="I38" t="s">
-        <v>120</v>
-      </c>
-      <c r="J38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F39">
-        <v>30</v>
-      </c>
-      <c r="G39" t="s">
-        <v>123</v>
-      </c>
-      <c r="H39" t="s">
-        <v>130</v>
-      </c>
-      <c r="I39" t="s">
-        <v>123</v>
-      </c>
-      <c r="J39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F40">
-        <v>31</v>
-      </c>
-      <c r="G40" t="s">
-        <v>127</v>
-      </c>
-      <c r="H40" t="s">
-        <v>130</v>
-      </c>
-      <c r="I40" t="s">
-        <v>127</v>
-      </c>
-      <c r="J40" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F41">
-        <v>32</v>
-      </c>
-      <c r="G41" t="s">
-        <v>78</v>
-      </c>
-      <c r="H41" t="s">
-        <v>130</v>
-      </c>
-      <c r="I41" t="s">
-        <v>78</v>
-      </c>
-      <c r="J41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F42">
-        <v>33</v>
-      </c>
-      <c r="G42" t="s">
-        <v>82</v>
-      </c>
-      <c r="H42" t="s">
-        <v>130</v>
-      </c>
-      <c r="I42" t="s">
-        <v>82</v>
-      </c>
-      <c r="J42" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F43">
-        <v>34</v>
-      </c>
-      <c r="G43" t="s">
-        <v>86</v>
-      </c>
-      <c r="H43" t="s">
-        <v>130</v>
-      </c>
-      <c r="I43" t="s">
-        <v>86</v>
-      </c>
-      <c r="J43" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F44">
-        <v>35</v>
-      </c>
-      <c r="G44" t="s">
-        <v>90</v>
-      </c>
-      <c r="H44" t="s">
-        <v>130</v>
-      </c>
-      <c r="I44" t="s">
-        <v>90</v>
-      </c>
-      <c r="J44" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F45">
-        <v>36</v>
-      </c>
-      <c r="G45" t="s">
-        <v>94</v>
-      </c>
-      <c r="H45" t="s">
-        <v>130</v>
-      </c>
-      <c r="I45" t="s">
-        <v>94</v>
-      </c>
-      <c r="J45" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F46">
-        <v>37</v>
-      </c>
-      <c r="G46" t="s">
-        <v>97</v>
-      </c>
-      <c r="H46" t="s">
-        <v>130</v>
-      </c>
-      <c r="I46" t="s">
-        <v>97</v>
-      </c>
-      <c r="J46" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="47" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F47">
-        <v>38</v>
-      </c>
-      <c r="G47" t="s">
-        <v>100</v>
-      </c>
-      <c r="H47" t="s">
-        <v>130</v>
-      </c>
-      <c r="I47" t="s">
-        <v>100</v>
-      </c>
-      <c r="J47" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F48">
-        <v>39</v>
-      </c>
-      <c r="G48" t="s">
-        <v>103</v>
-      </c>
-      <c r="H48" t="s">
-        <v>130</v>
-      </c>
-      <c r="I48" t="s">
-        <v>103</v>
-      </c>
-      <c r="J48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F49">
-        <v>40</v>
-      </c>
-      <c r="G49" t="s">
-        <v>106</v>
-      </c>
-      <c r="H49" t="s">
-        <v>130</v>
-      </c>
-      <c r="I49" t="s">
-        <v>106</v>
-      </c>
-      <c r="J49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F50">
-        <v>41</v>
-      </c>
-      <c r="G50" t="s">
-        <v>109</v>
-      </c>
-      <c r="H50" t="s">
-        <v>130</v>
-      </c>
-      <c r="I50" t="s">
-        <v>109</v>
-      </c>
-      <c r="J50" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F51">
-        <v>42</v>
-      </c>
-      <c r="G51" t="s">
-        <v>112</v>
-      </c>
-      <c r="H51" t="s">
-        <v>130</v>
-      </c>
-      <c r="I51" t="s">
-        <v>112</v>
-      </c>
-      <c r="J51" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F52">
-        <v>43</v>
-      </c>
-      <c r="G52" t="s">
-        <v>115</v>
-      </c>
-      <c r="H52" t="s">
-        <v>130</v>
-      </c>
-      <c r="I52" t="s">
-        <v>115</v>
-      </c>
-      <c r="J52" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="53" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F53">
-        <v>44</v>
-      </c>
-      <c r="G53" t="s">
-        <v>118</v>
-      </c>
-      <c r="H53" t="s">
-        <v>130</v>
-      </c>
-      <c r="I53" t="s">
-        <v>118</v>
-      </c>
-      <c r="J53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F54">
-        <v>45</v>
-      </c>
-      <c r="G54" t="s">
-        <v>121</v>
-      </c>
-      <c r="H54" t="s">
-        <v>130</v>
-      </c>
-      <c r="I54" t="s">
-        <v>121</v>
-      </c>
-      <c r="J54" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="55" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F55">
-        <v>46</v>
-      </c>
-      <c r="G55" t="s">
-        <v>124</v>
-      </c>
-      <c r="H55" t="s">
-        <v>130</v>
-      </c>
-      <c r="I55" t="s">
-        <v>124</v>
-      </c>
-      <c r="J55" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="56" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F56">
-        <v>47</v>
-      </c>
-      <c r="G56" t="s">
-        <v>128</v>
-      </c>
-      <c r="H56" t="s">
-        <v>130</v>
-      </c>
-      <c r="I56" t="s">
-        <v>128</v>
-      </c>
-      <c r="J56" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F57">
-        <v>48</v>
-      </c>
-      <c r="G57" t="s">
-        <v>79</v>
-      </c>
-      <c r="H57" t="s">
-        <v>130</v>
-      </c>
-      <c r="I57" t="s">
-        <v>79</v>
-      </c>
-      <c r="J57" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="58" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F58">
-        <v>49</v>
-      </c>
-      <c r="G58" t="s">
-        <v>83</v>
-      </c>
-      <c r="H58" t="s">
-        <v>130</v>
-      </c>
-      <c r="I58" t="s">
-        <v>83</v>
-      </c>
-      <c r="J58" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="59" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F59">
-        <v>50</v>
-      </c>
-      <c r="G59" t="s">
-        <v>87</v>
-      </c>
-      <c r="H59" t="s">
-        <v>130</v>
-      </c>
-      <c r="I59" t="s">
-        <v>87</v>
-      </c>
-      <c r="J59" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="60" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F60">
-        <v>51</v>
-      </c>
-      <c r="G60" t="s">
-        <v>91</v>
-      </c>
-      <c r="H60" t="s">
-        <v>130</v>
-      </c>
-      <c r="I60" t="s">
-        <v>91</v>
-      </c>
-      <c r="J60" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="61" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F61">
-        <v>52</v>
-      </c>
-      <c r="G61" s="16">
-        <v>0</v>
-      </c>
-      <c r="H61" t="s">
-        <v>130</v>
-      </c>
-      <c r="I61" s="16">
-        <v>0</v>
-      </c>
-      <c r="J61" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="62" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F62">
-        <v>53</v>
-      </c>
-      <c r="G62" s="16">
-        <v>1</v>
-      </c>
-      <c r="H62" t="s">
-        <v>130</v>
-      </c>
-      <c r="I62" s="16">
-        <v>1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F63">
-        <v>54</v>
-      </c>
-      <c r="G63" s="16">
-        <v>2</v>
-      </c>
-      <c r="H63" t="s">
-        <v>130</v>
-      </c>
-      <c r="I63" s="16">
-        <v>2</v>
-      </c>
-      <c r="J63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F64">
-        <v>55</v>
-      </c>
-      <c r="G64" s="16">
-        <v>3</v>
-      </c>
-      <c r="H64" t="s">
-        <v>130</v>
-      </c>
-      <c r="I64" s="16">
-        <v>3</v>
-      </c>
-      <c r="J64" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="65" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F65">
-        <v>56</v>
-      </c>
-      <c r="G65" s="16">
-        <v>4</v>
-      </c>
-      <c r="H65" t="s">
-        <v>130</v>
-      </c>
-      <c r="I65" s="16">
-        <v>4</v>
-      </c>
-      <c r="J65" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="66" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F66">
-        <v>57</v>
-      </c>
-      <c r="G66" s="16">
-        <v>5</v>
-      </c>
-      <c r="H66" t="s">
-        <v>130</v>
-      </c>
-      <c r="I66" s="16">
-        <v>5</v>
-      </c>
-      <c r="J66" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F67">
-        <v>58</v>
-      </c>
-      <c r="G67" s="16">
-        <v>6</v>
-      </c>
-      <c r="H67" t="s">
-        <v>130</v>
-      </c>
-      <c r="I67" s="16">
-        <v>6</v>
-      </c>
-      <c r="J67" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="68" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F68">
-        <v>59</v>
-      </c>
-      <c r="G68" s="16">
-        <v>7</v>
-      </c>
-      <c r="H68" t="s">
-        <v>130</v>
-      </c>
-      <c r="I68" s="16">
-        <v>7</v>
-      </c>
-      <c r="J68" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="69" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F69">
-        <v>60</v>
-      </c>
-      <c r="G69" s="16">
-        <v>8</v>
-      </c>
-      <c r="H69" t="s">
-        <v>130</v>
-      </c>
-      <c r="I69" s="16">
-        <v>8</v>
-      </c>
-      <c r="J69" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F70">
-        <v>61</v>
-      </c>
-      <c r="G70" s="16">
-        <v>9</v>
-      </c>
-      <c r="H70" t="s">
-        <v>130</v>
-      </c>
-      <c r="I70" s="16">
-        <v>9</v>
-      </c>
-      <c r="J70" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F71">
-        <v>62</v>
-      </c>
-      <c r="G71" t="s">
-        <v>125</v>
-      </c>
-      <c r="H71" t="s">
-        <v>130</v>
-      </c>
-      <c r="I71" t="s">
-        <v>125</v>
-      </c>
-      <c r="J71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="6:10" x14ac:dyDescent="0.15">
-      <c r="F72">
-        <v>63</v>
-      </c>
-      <c r="G72" t="s">
-        <v>129</v>
-      </c>
-      <c r="H72" t="s">
-        <v>130</v>
-      </c>
-      <c r="I72" t="s">
-        <v>129</v>
-      </c>
-      <c r="J72" t="s">
-        <v>131</v>
-      </c>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G61" s="16"/>
+      <c r="I61" s="16"/>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G62" s="16"/>
+      <c r="I62" s="16"/>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G63" s="16"/>
+      <c r="I63" s="16"/>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G64" s="16"/>
+      <c r="I64" s="16"/>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G65" s="16"/>
+      <c r="I65" s="16"/>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G66" s="16"/>
+      <c r="I66" s="16"/>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G67" s="16"/>
+      <c r="I67" s="16"/>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G68" s="16"/>
+      <c r="I68" s="16"/>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G69" s="16"/>
+      <c r="I69" s="16"/>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.15">
+      <c r="G70" s="16"/>
+      <c r="I70" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
